--- a/pools-example-small.xlsx
+++ b/pools-example-small.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -89,55 +89,55 @@
     <t>Pool A</t>
   </si>
   <si>
+    <t>Kevin Clark</t>
+  </si>
+  <si>
+    <t>Team Alpha</t>
+  </si>
+  <si>
+    <t>Luke Rodriguez</t>
+  </si>
+  <si>
+    <t>Team Beta</t>
+  </si>
+  <si>
     <t>Michael Lewis</t>
   </si>
   <si>
     <t>Team Gamma</t>
   </si>
   <si>
+    <t>Thomas King</t>
+  </si>
+  <si>
+    <t>Team Epsilon</t>
+  </si>
+  <si>
+    <t>Pool B</t>
+  </si>
+  <si>
+    <t>Nathan Lee</t>
+  </si>
+  <si>
+    <t>Team Delta</t>
+  </si>
+  <si>
+    <t>Oliver Walker</t>
+  </si>
+  <si>
+    <t>Paul Hall</t>
+  </si>
+  <si>
+    <t>Pool C</t>
+  </si>
+  <si>
+    <t>Quentin Allen</t>
+  </si>
+  <si>
+    <t>Robert Young</t>
+  </si>
+  <si>
     <t>Steven Hernandez</t>
-  </si>
-  <si>
-    <t>Team Delta</t>
-  </si>
-  <si>
-    <t>Kevin Clark</t>
-  </si>
-  <si>
-    <t>Team Alpha</t>
-  </si>
-  <si>
-    <t>Thomas King</t>
-  </si>
-  <si>
-    <t>Team Epsilon</t>
-  </si>
-  <si>
-    <t>Pool B</t>
-  </si>
-  <si>
-    <t>Robert Young</t>
-  </si>
-  <si>
-    <t>Paul Hall</t>
-  </si>
-  <si>
-    <t>Nathan Lee</t>
-  </si>
-  <si>
-    <t>Pool C</t>
-  </si>
-  <si>
-    <t>Oliver Walker</t>
-  </si>
-  <si>
-    <t>Quentin Allen</t>
-  </si>
-  <si>
-    <t>Team Beta</t>
-  </si>
-  <si>
-    <t>Luke Rodriguez</t>
   </si>
   <si>
     <t>Pool A.1</t>
@@ -509,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -568,8 +568,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
       <alignment/>
@@ -582,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -937,7 +940,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="true">
@@ -945,10 +948,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="true">
@@ -956,43 +959,43 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="true">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="true">
@@ -2078,201 +2081,149 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="false" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView showGridLines="false" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13"/>
   <cols>
     <col customWidth="true" max="1" min="1" width="20.83203125"/>
-    <col customWidth="true" max="3" min="3" width="20"/>
-    <col customWidth="true" max="5" min="5" width="20"/>
+    <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="25" t="str">
+        <f>data!A5</f>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="str">
+        <f>data!B2</f>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="20"/>
+    </row>
     <row r="4">
-      <c r="A4" s="25" t="str">
-        <f>data!A5</f>
+      <c r="A4" s="27" t="str">
+        <f>data!B3</f>
+      </c>
+      <c r="G4" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="str">
-        <f>data!B2</f>
-      </c>
+      <c r="A5" s="27" t="str">
+        <f>data!B4</f>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="str">
-        <f>data!B3</f>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="28" t="str">
+        <f>data!B5</f>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="str">
-        <f>data!B4</f>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="str">
-        <f>data!B5</f>
-      </c>
-      <c r="G8" s="20"/>
+      <c r="A8" s="25" t="str">
+        <f>data!A8</f>
+      </c>
+      <c r="I8" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="26" t="str">
+        <f>data!B6</f>
+      </c>
+      <c r="I9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="str">
-        <f>data!A8</f>
-      </c>
-      <c r="G10" s="21">
-        <v>3</v>
-      </c>
+      <c r="A10" s="27" t="str">
+        <f>data!B7</f>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="str">
-        <f>data!B6</f>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>33</v>
-      </c>
+      <c r="A11" s="28" t="str">
+        <f>data!B8</f>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
       <c r="I11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="str">
-        <f>data!B7</f>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="G12" s="21">
+        <v>4</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="str">
-        <f>data!B8</f>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23"/>
+      <c r="A13" s="25" t="str">
+        <f>data!A11</f>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="20"/>
-      <c r="I13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="22"/>
-      <c r="C14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="26" t="str">
+        <f>data!B9</f>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="str">
-        <f>data!A11</f>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="27" t="str">
+        <f>data!B10</f>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="str">
-        <f>data!B9</f>
-      </c>
-      <c r="I16" s="20"/>
+      <c r="A16" s="28" t="str">
+        <f>data!B11</f>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="str">
-        <f>data!B10</f>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="28" t="str">
-        <f>data!B11</f>
-      </c>
-      <c r="I18" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23">
-      <c r="G23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24">
-      <c r="G24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="G25" s="21">
-        <v>4</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="24"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28">
-      <c r="E28" s="21">
-        <v>2</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="24"/>
+      <c r="A17" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-  </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2633,730 +2584,730 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="A4" s="24" t="str">
+      <c r="A4" s="29" t="str">
         <f>data!A5</f>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="24" t="str">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="I4" s="29" t="str">
         <f>data!A8</f>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="31" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="37" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="38" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="str">
+      <c r="A6" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="str">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I6" s="29" t="str">
+      <c r="I6" s="30" t="str">
         <f>data!B6</f>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="str">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="30">
         <v>1</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29">
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="30">
         <v>2</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30">
         <v>2</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="30">
         <v>2</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30">
         <v>3</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="30">
         <v>3</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="30">
         <v>4</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30">
         <v>4</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="30">
         <v>4</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="29">
+      <c r="A11" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
         <v>5</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="30">
         <v>5</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="str">
+      <c r="A13" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I13" s="30" t="str">
         <f>data!B6</f>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
+      <c r="L13" s="30"/>
+      <c r="M13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="O13" s="30" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29" t="s">
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="32" t="s">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29" t="s">
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="38" t="s">
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="29" t="str">
+      <c r="A19" s="30" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="str">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I19" s="29" t="str">
+      <c r="I19" s="30" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29" t="str">
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29">
+      <c r="A20" s="30">
         <v>1</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30">
         <v>1</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="30">
         <v>1</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29">
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="29">
+      <c r="A21" s="30">
         <v>2</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30">
         <v>2</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="30">
         <v>2</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29">
+      <c r="A22" s="30">
         <v>3</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30">
         <v>3</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="30">
         <v>3</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29">
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="29">
+      <c r="A23" s="30">
         <v>4</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30">
         <v>4</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="30">
         <v>4</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29">
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <v>5</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
         <v>5</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="30">
         <v>5</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="30" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I26" s="29" t="str">
+      <c r="I26" s="30" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29" t="s">
+      <c r="L26" s="30"/>
+      <c r="M26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="29" t="str">
+      <c r="O26" s="30" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29" t="s">
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="33" t="s">
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29" t="s">
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="39" t="s">
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="29" t="str">
+      <c r="A32" s="30" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29" t="str">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="str">
         <f>data!B5</f>
       </c>
-      <c r="I32" s="29" t="str">
+      <c r="I32" s="30" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29" t="str">
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30" t="str">
         <f>data!B6</f>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="29">
+      <c r="A33" s="30">
         <v>1</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30">
         <v>1</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="30">
         <v>1</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29">
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="29">
+      <c r="A34" s="30">
         <v>2</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30">
         <v>2</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="30">
         <v>2</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29">
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="29">
+      <c r="A35" s="30">
         <v>3</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30">
         <v>3</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="30">
         <v>3</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29">
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="29">
+      <c r="A36" s="30">
         <v>4</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30">
         <v>4</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="30">
         <v>4</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29">
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="29">
+      <c r="A37" s="30">
         <v>5</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30">
         <v>5</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="30">
         <v>5</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29">
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="29" t="str">
+      <c r="A39" s="30" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="29" t="str">
+      <c r="G39" s="30" t="str">
         <f>data!B5</f>
       </c>
-      <c r="I39" s="29" t="str">
+      <c r="I39" s="30" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J39" s="29" t="s">
+      <c r="J39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29" t="s">
+      <c r="L39" s="30"/>
+      <c r="M39" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="29" t="s">
+      <c r="N39" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O39" s="29" t="str">
+      <c r="O39" s="30" t="str">
         <f>data!B6</f>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29" t="s">
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3373,17 +3324,17 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="34" t="s">
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="35" t="s">
         <v>40</v>
       </c>
       <c r="N44" s="7" t="s">
@@ -3392,368 +3343,368 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45">
-      <c r="A45" s="29" t="str">
+      <c r="A45" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29" t="str">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30" t="str">
         <f>data!B5</f>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="29">
+      <c r="A46" s="30">
         <v>1</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="29">
+      <c r="A47" s="30">
         <v>2</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="29">
+      <c r="A48" s="30">
         <v>3</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="29">
+      <c r="A49" s="30">
         <v>4</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="29">
+      <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="29" t="str">
+      <c r="A52" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29" t="s">
+      <c r="D52" s="30"/>
+      <c r="E52" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="29" t="str">
+      <c r="G52" s="30" t="str">
         <f>data!B5</f>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29" t="s">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29" t="s">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="35" t="s">
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="29" t="str">
+      <c r="A58" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29" t="str">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30" t="str">
         <f>data!B4</f>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="29">
+      <c r="A59" s="30">
         <v>1</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="29">
+      <c r="A60" s="30">
         <v>2</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="29">
+      <c r="A61" s="30">
         <v>3</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="29">
+      <c r="A62" s="30">
         <v>4</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="29">
+      <c r="A63" s="30">
         <v>5</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="29" t="str">
+      <c r="A65" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="29" t="str">
+      <c r="G65" s="30" t="str">
         <f>data!B4</f>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29" t="s">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29" t="s">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="36" t="s">
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="29" t="str">
+      <c r="A71" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29" t="str">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30" t="str">
         <f>data!B5</f>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="29">
+      <c r="A72" s="30">
         <v>1</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="29">
+      <c r="A73" s="30">
         <v>2</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="29">
+      <c r="A74" s="30">
         <v>3</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="29">
+      <c r="A75" s="30">
         <v>4</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="29">
+      <c r="A76" s="30">
         <v>5</v>
       </c>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="29" t="str">
+      <c r="A78" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29" t="s">
+      <c r="D78" s="30"/>
+      <c r="E78" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G78" s="29" t="str">
+      <c r="G78" s="30" t="str">
         <f>data!B5</f>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29" t="s">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3782,394 +3733,394 @@
       <c r="G84" s="23"/>
     </row>
     <row r="87">
-      <c r="A87" s="24" t="str">
+      <c r="A87" s="29" t="str">
         <f>data!A11</f>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
     </row>
     <row r="88">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="40" t="s">
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="29" t="str">
+      <c r="A89" s="30" t="str">
         <f>data!B9</f>
       </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29" t="str">
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30" t="str">
         <f>data!B10</f>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="29">
+      <c r="A90" s="30">
         <v>1</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29">
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="29">
+      <c r="A91" s="30">
         <v>2</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="29">
+      <c r="A92" s="30">
         <v>3</v>
       </c>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29">
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="29">
+      <c r="A93" s="30">
         <v>4</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29">
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="29">
+      <c r="A94" s="30">
         <v>5</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29">
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="29" t="str">
+      <c r="A96" s="30" t="str">
         <f>data!B9</f>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29" t="s">
+      <c r="D96" s="30"/>
+      <c r="E96" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F96" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G96" s="29" t="str">
+      <c r="G96" s="30" t="str">
         <f>data!B10</f>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29" t="s">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29" t="s">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="41" t="s">
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="29" t="str">
+      <c r="A102" s="30" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29" t="str">
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30" t="str">
         <f>data!B10</f>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="29">
+      <c r="A103" s="30">
         <v>1</v>
       </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29">
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="29">
+      <c r="A104" s="30">
         <v>2</v>
       </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29">
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="29">
+      <c r="A105" s="30">
         <v>3</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29">
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="29">
+      <c r="A106" s="30">
         <v>4</v>
       </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29">
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="29">
+      <c r="A107" s="30">
         <v>5</v>
       </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29">
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="29" t="str">
+      <c r="A109" s="30" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29" t="s">
+      <c r="D109" s="30"/>
+      <c r="E109" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G109" s="29" t="str">
+      <c r="G109" s="30" t="str">
         <f>data!B10</f>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29" t="s">
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29" t="s">
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="42" t="s">
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="29" t="str">
+      <c r="A115" s="30" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29" t="str">
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30" t="str">
         <f>data!B9</f>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="29">
+      <c r="A116" s="30">
         <v>1</v>
       </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29">
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="29">
+      <c r="A117" s="30">
         <v>2</v>
       </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29">
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="29">
+      <c r="A118" s="30">
         <v>3</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="29">
+      <c r="A119" s="30">
         <v>4</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="29">
+      <c r="A120" s="30">
         <v>5</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29">
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="29" t="str">
+      <c r="A122" s="30" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29" t="s">
+      <c r="D122" s="30"/>
+      <c r="E122" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G122" s="29" t="str">
+      <c r="G122" s="30" t="str">
         <f>data!B9</f>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29" t="s">
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4226,269 +4177,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="true">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="I3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="47" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="str">
+      <c r="A5" s="30" t="str">
         <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="str">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
       </c>
-      <c r="I5" s="29" t="str">
+      <c r="I5" s="30" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29" t="str">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="30">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="30">
         <v>1</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="29">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <v>2</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="30">
         <v>2</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29">
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30">
         <v>3</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="30">
         <v>3</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="29">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30">
         <v>4</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="30">
         <v>4</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="30">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30">
         <v>5</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="30">
         <v>5</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="str">
+      <c r="A12" s="30" t="str">
         <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="29" t="str">
+      <c r="G12" s="30" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
       </c>
-      <c r="I12" s="29" t="str">
+      <c r="I12" s="30" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29" t="s">
+      <c r="L12" s="30"/>
+      <c r="M12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="30" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29" t="s">
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4513,269 +4464,269 @@
       <c r="O16" s="23"/>
     </row>
     <row r="24">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="I26" s="24" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="I26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="48" t="s">
+      <c r="O27" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29" t="str">
+      <c r="A28" s="30" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G81)</f>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="str">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
-      <c r="I28" s="29" t="str">
+      <c r="I28" s="30" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29" t="str">
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="29">
+      <c r="A29" s="30">
         <v>1</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30">
         <v>1</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="30">
         <v>1</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29">
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29">
+      <c r="A30" s="30">
         <v>2</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30">
         <v>2</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="30">
         <v>2</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29">
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="29">
+      <c r="A31" s="30">
         <v>3</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30">
         <v>3</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="30">
         <v>3</v>
       </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29">
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="29">
+      <c r="A32" s="30">
         <v>4</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30">
         <v>4</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="30">
         <v>4</v>
       </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29">
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="29">
+      <c r="A33" s="30">
         <v>5</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30">
         <v>5</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="30">
         <v>5</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29">
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="29" t="str">
+      <c r="A35" s="30" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G81)</f>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="29" t="str">
+      <c r="G35" s="30" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
-      <c r="I35" s="29" t="str">
+      <c r="I35" s="30" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29" t="s">
+      <c r="L35" s="30"/>
+      <c r="M35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="29" t="s">
+      <c r="N35" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="29" t="str">
+      <c r="O35" s="30" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29" t="s">
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4800,155 +4751,155 @@
       <c r="O39" s="23"/>
     </row>
     <row r="47">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
     </row>
     <row r="49">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="29" t="str">
+      <c r="A51" s="30" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29" t="str">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O38)</f>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="29">
+      <c r="A52" s="30">
         <v>1</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="29">
+      <c r="A53" s="30">
         <v>2</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="29">
+      <c r="A54" s="30">
         <v>3</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="29">
+      <c r="A55" s="30">
         <v>4</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="29">
+      <c r="A56" s="30">
         <v>5</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="29" t="str">
+      <c r="A58" s="30" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29" t="s">
+      <c r="D58" s="30"/>
+      <c r="E58" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="29" t="str">
+      <c r="G58" s="30" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O38)</f>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4998,144 +4949,144 @@
   </cols>
   <sheetData>
     <row r="1" ht="110" customHeight="true">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44" t="str">
+      <c r="B1" s="45" t="str">
         <f>data!B2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
-      <c r="A2" s="43">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" ht="110" customHeight="true">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="45" t="str">
         <f>data!B3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
-      <c r="A4" s="43">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" ht="110" customHeight="true">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="44" t="str">
+      <c r="B5" s="45" t="str">
         <f>data!B4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
-      <c r="A6" s="43">
+      <c r="A6" s="44">
         <v>3</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" ht="110" customHeight="true">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="44" t="str">
+      <c r="B7" s="45" t="str">
         <f>data!B5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
-      <c r="A8" s="43">
+      <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9" ht="110" customHeight="true">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="44" t="str">
+      <c r="B9" s="45" t="str">
         <f>data!B6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
-      <c r="A10" s="43">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" ht="110" customHeight="true">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="44" t="str">
+      <c r="B11" s="45" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
-      <c r="A12" s="43">
+      <c r="A12" s="44">
         <v>2</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="45"/>
     </row>
     <row r="13" ht="110" customHeight="true">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="45" t="str">
         <f>data!B8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
-      <c r="A14" s="43">
+      <c r="A14" s="44">
         <v>3</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="45"/>
     </row>
     <row r="15" ht="110" customHeight="true">
-      <c r="A15" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="44" t="str">
+      <c r="A15" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="45" t="str">
         <f>data!B9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
-      <c r="A16" s="43">
+      <c r="A16" s="44">
         <v>1</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" ht="110" customHeight="true">
-      <c r="A17" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="44" t="str">
+      <c r="A17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="45" t="str">
         <f>data!B10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
-      <c r="A18" s="43">
+      <c r="A18" s="44">
         <v>2</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="45"/>
     </row>
     <row r="19" ht="110" customHeight="true">
-      <c r="A19" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="44" t="str">
+      <c r="A19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="45" t="str">
         <f>data!B11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
-      <c r="A20" s="43">
+      <c r="A20" s="44">
         <v>3</v>
       </c>
-      <c r="B20" s="44"/>
+      <c r="B20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/pools-example-small.xlsx
+++ b/pools-example-small.xlsx
@@ -143,19 +143,19 @@
     <t>Pool A.1</t>
   </si>
   <si>
+    <t>Pool C.1</t>
+  </si>
+  <si>
+    <t>Pool B.2</t>
+  </si>
+  <si>
+    <t>Pool B.1</t>
+  </si>
+  <si>
+    <t>Pool A.2</t>
+  </si>
+  <si>
     <t>Pool C.2</t>
-  </si>
-  <si>
-    <t>Pool A.2</t>
-  </si>
-  <si>
-    <t>Pool C.1</t>
-  </si>
-  <si>
-    <t>Pool B.1</t>
-  </si>
-  <si>
-    <t>Pool B.2</t>
   </si>
   <si>
     <t>Red</t>
@@ -2095,130 +2095,130 @@
       <c r="A2" s="25" t="str">
         <f>data!A5</f>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
         <f>data!B2</f>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
         <f>data!B3</f>
       </c>
-      <c r="G4" s="21">
-        <v>3</v>
-      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="27" t="str">
         <f>data!B4</f>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="28" t="str">
         <f>data!B5</f>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="22"/>
-      <c r="C7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="str">
         <f>data!A8</f>
       </c>
-      <c r="I8" s="21">
-        <v>5</v>
-      </c>
+      <c r="C8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="26" t="str">
         <f>data!B6</f>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="str">
         <f>data!B7</f>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="28" t="str">
         <f>data!B8</f>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="22"/>
-      <c r="G12" s="21">
-        <v>4</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
     </row>
     <row r="13">
       <c r="A13" s="25" t="str">
         <f>data!A11</f>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21">
+        <v>4</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="str">
         <f>data!B9</f>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>2</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="20"/>
     </row>
     <row r="15">
       <c r="A15" s="27" t="str">
         <f>data!B10</f>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="28" t="str">
         <f>data!B11</f>
       </c>
+      <c r="C16" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="22"/>
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="12">
         <v>2.0833333333333333E-3</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -4245,10 +4245,10 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="str">
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
+      </c>
+      <c r="I5" s="30" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
-      </c>
-      <c r="I5" s="30" t="str">
-        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -4256,7 +4256,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="str">
-        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
     </row>
     <row r="6">
@@ -4381,7 +4381,7 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
       <c r="B12" s="30" t="s">
         <v>41</v>
@@ -4397,10 +4397,10 @@
         <v>41</v>
       </c>
       <c r="G12" s="30" t="str">
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
+      </c>
+      <c r="I12" s="30" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
-      </c>
-      <c r="I12" s="30" t="str">
-        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="J12" s="30" t="s">
         <v>41</v>
@@ -4416,7 +4416,7 @@
         <v>41</v>
       </c>
       <c r="O12" s="30" t="str">
-        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
     </row>
     <row r="13">
@@ -4535,7 +4535,7 @@
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
       <c r="I28" s="30" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -4687,7 +4687,7 @@
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
       <c r="I35" s="30" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="J35" s="30" t="s">
         <v>41</v>

--- a/pools-example-small.xlsx
+++ b/pools-example-small.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -667,60 +667,60 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <themeElements>
-    <clrScheme name="Sheets">
-      <dk1>
-        <srgbClr val="000000"/>
-      </dk1>
-      <lt1>
-        <srgbClr val="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="000000"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="FFFFFF"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="4F81BD"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="C0504D"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="9BBB59"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="8064A2"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4BACC6"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="F79646"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0000FF"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="0000FF"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Sheets">
-      <majorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -776,8 +776,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -799,8 +799,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -816,8 +816,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -854,12 +854,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2091,14 +2091,15 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="25" t="str">
-        <f>data!A5</f>
+        <f>data!$A$5</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="E3" s="24" t="s">
         <v>32</v>
@@ -2106,14 +2107,14 @@
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="27" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="G5" s="21">
         <v>3</v>
@@ -2121,7 +2122,7 @@
     </row>
     <row r="6">
       <c r="A6" s="28" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
       <c r="C6" s="24" t="s">
         <v>33</v>
@@ -2142,7 +2143,7 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="str">
-        <f>data!A8</f>
+        <f>data!$A$8</f>
       </c>
       <c r="C8" s="24" t="s">
         <v>34</v>
@@ -2153,7 +2154,7 @@
     </row>
     <row r="9">
       <c r="A9" s="26" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="I9" s="21">
         <v>5</v>
@@ -2161,13 +2162,13 @@
     </row>
     <row r="10">
       <c r="A10" s="27" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
       <c r="I10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="28" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="E11" s="24" t="s">
         <v>35</v>
@@ -2182,7 +2183,7 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="str">
-        <f>data!A11</f>
+        <f>data!$A$11</f>
       </c>
       <c r="G13" s="21">
         <v>4</v>
@@ -2192,7 +2193,7 @@
     </row>
     <row r="14">
       <c r="A14" s="26" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="C14" s="24" t="s">
         <v>36</v>
@@ -2201,7 +2202,7 @@
     </row>
     <row r="15">
       <c r="A15" s="27" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21">
@@ -2212,7 +2213,7 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="C16" s="24" t="s">
         <v>37</v>
@@ -2467,6 +2468,7 @@
     <col customWidth="true" max="26" min="11" width="8.83203125"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
@@ -2498,55 +2500,55 @@
     </row>
     <row r="5" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B5" s="6" t="str">
-        <f>data!A5</f>
+        <f>data!$A$5</f>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="str">
-        <f>data!A8</f>
+        <f>data!$A$8</f>
       </c>
       <c r="F5" s="6" t="str">
-        <f>data!A11</f>
+        <f>data!$A$11</f>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B6" s="5" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="F6" s="5" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B7" s="5" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
       <c r="F7" s="5" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B8" s="5" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="F8" s="5" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
     </row>
     <row r="9" ht="17" customHeight="true">
       <c r="B9" s="5" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
   </sheetData>
@@ -2583,9 +2585,12 @@
     <col max="16384" min="16" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="29" t="str">
-        <f>data!A5</f>
+        <f>data!$A$5</f>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -2594,7 +2599,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="I4" s="29" t="str">
-        <f>data!A8</f>
+        <f>data!$A$8</f>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -2633,7 +2638,7 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -2641,10 +2646,10 @@
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I6" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -2652,7 +2657,7 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="7">
@@ -2775,9 +2780,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B13" s="30" t="s">
         <v>41</v>
@@ -2793,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="G13" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I13" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="J13" s="30" t="s">
         <v>41</v>
@@ -2812,7 +2818,7 @@
         <v>41</v>
       </c>
       <c r="O13" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="14">
@@ -2839,6 +2845,9 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="31" t="s">
         <v>38</v>
@@ -2869,7 +2878,7 @@
     </row>
     <row r="19">
       <c r="A19" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -2877,10 +2886,10 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I19" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -2888,7 +2897,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="20">
@@ -3011,9 +3020,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B26" s="30" t="s">
         <v>41</v>
@@ -3029,10 +3039,10 @@
         <v>41</v>
       </c>
       <c r="G26" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I26" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J26" s="30" t="s">
         <v>41</v>
@@ -3048,7 +3058,7 @@
         <v>41</v>
       </c>
       <c r="O26" s="30" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="27">
@@ -3075,6 +3085,9 @@
         <v>43</v>
       </c>
     </row>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
     <row r="31">
       <c r="A31" s="31" t="s">
         <v>38</v>
@@ -3105,7 +3118,7 @@
     </row>
     <row r="32">
       <c r="A32" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -3113,10 +3126,10 @@
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
       <c r="I32" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
@@ -3124,7 +3137,7 @@
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
       <c r="O32" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="33">
@@ -3247,9 +3260,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38"/>
     <row r="39">
       <c r="A39" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B39" s="30" t="s">
         <v>41</v>
@@ -3265,10 +3279,10 @@
         <v>41</v>
       </c>
       <c r="G39" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
       <c r="I39" s="30" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
       <c r="J39" s="30" t="s">
         <v>41</v>
@@ -3284,7 +3298,7 @@
         <v>41</v>
       </c>
       <c r="O39" s="30" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="40">
@@ -3311,6 +3325,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="41"/>
     <row r="42">
       <c r="N42" s="7" t="s">
         <v>44</v>
@@ -3344,7 +3359,7 @@
     </row>
     <row r="45">
       <c r="A45" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -3352,7 +3367,7 @@
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="46">
@@ -3420,9 +3435,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="51"/>
     <row r="52">
       <c r="A52" s="30" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="B52" s="30" t="s">
         <v>41</v>
@@ -3438,7 +3454,7 @@
         <v>41</v>
       </c>
       <c r="G52" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="53">
@@ -3454,6 +3470,9 @@
         <v>43</v>
       </c>
     </row>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
     <row r="57">
       <c r="A57" s="31" t="s">
         <v>38</v>
@@ -3471,7 +3490,7 @@
     </row>
     <row r="58">
       <c r="A58" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -3479,7 +3498,7 @@
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
     </row>
     <row r="59">
@@ -3547,9 +3566,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="64"/>
     <row r="65">
       <c r="A65" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B65" s="30" t="s">
         <v>41</v>
@@ -3565,7 +3585,7 @@
         <v>41</v>
       </c>
       <c r="G65" s="30" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
     </row>
     <row r="66">
@@ -3581,6 +3601,9 @@
         <v>43</v>
       </c>
     </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
     <row r="70">
       <c r="A70" s="31" t="s">
         <v>38</v>
@@ -3598,7 +3621,7 @@
     </row>
     <row r="71">
       <c r="A71" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -3606,7 +3629,7 @@
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="72">
@@ -3674,9 +3697,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="77"/>
     <row r="78">
       <c r="A78" s="30" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B78" s="30" t="s">
         <v>41</v>
@@ -3692,7 +3716,7 @@
         <v>41</v>
       </c>
       <c r="G78" s="30" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="79">
@@ -3708,6 +3732,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="80"/>
     <row r="81">
       <c r="F81" s="7" t="s">
         <v>44</v>
@@ -3732,9 +3757,11 @@
       </c>
       <c r="G84" s="23"/>
     </row>
+    <row r="85"/>
+    <row r="86"/>
     <row r="87">
       <c r="A87" s="29" t="str">
-        <f>data!A11</f>
+        <f>data!$A$11</f>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -3760,7 +3787,7 @@
     </row>
     <row r="89">
       <c r="A89" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -3768,7 +3795,7 @@
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
       <c r="G89" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="90">
@@ -3836,9 +3863,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="95"/>
     <row r="96">
       <c r="A96" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="B96" s="30" t="s">
         <v>41</v>
@@ -3854,7 +3882,7 @@
         <v>41</v>
       </c>
       <c r="G96" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="97">
@@ -3870,6 +3898,9 @@
         <v>43</v>
       </c>
     </row>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
     <row r="101">
       <c r="A101" s="31" t="s">
         <v>38</v>
@@ -3887,7 +3918,7 @@
     </row>
     <row r="102">
       <c r="A102" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -3895,7 +3926,7 @@
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
       <c r="G102" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="103">
@@ -3963,9 +3994,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="108"/>
     <row r="109">
       <c r="A109" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B109" s="30" t="s">
         <v>41</v>
@@ -3981,7 +4013,7 @@
         <v>41</v>
       </c>
       <c r="G109" s="30" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="110">
@@ -3997,6 +4029,9 @@
         <v>43</v>
       </c>
     </row>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
     <row r="114">
       <c r="A114" s="31" t="s">
         <v>38</v>
@@ -4014,7 +4049,7 @@
     </row>
     <row r="115">
       <c r="A115" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
@@ -4022,7 +4057,7 @@
       <c r="E115" s="30"/>
       <c r="F115" s="30"/>
       <c r="G115" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
     </row>
     <row r="116">
@@ -4090,9 +4125,10 @@
         <v>5</v>
       </c>
     </row>
+    <row r="121"/>
     <row r="122">
       <c r="A122" s="30" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
       <c r="B122" s="30" t="s">
         <v>41</v>
@@ -4108,7 +4144,7 @@
         <v>41</v>
       </c>
       <c r="G122" s="30" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
     </row>
     <row r="123">
@@ -4124,6 +4160,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="124"/>
     <row r="125">
       <c r="F125" s="7" t="s">
         <v>44</v>
@@ -4195,6 +4232,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="29" t="s">
         <v>48</v>
@@ -4379,6 +4417,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="30" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
@@ -4443,6 +4482,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
         <v>49</v>
@@ -4463,6 +4503,13 @@
       </c>
       <c r="O16" s="23"/>
     </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="29" t="s">
         <v>52</v>
@@ -4482,6 +4529,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
     </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="29" t="s">
         <v>53</v>
@@ -4666,6 +4714,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="34"/>
     <row r="35">
       <c r="A35" s="30" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G81)</f>
@@ -4730,6 +4779,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="37"/>
     <row r="38">
       <c r="F38" s="7" t="s">
         <v>49</v>
@@ -4750,6 +4800,13 @@
       </c>
       <c r="O39" s="23"/>
     </row>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
     <row r="47">
       <c r="A47" s="29" t="s">
         <v>55</v>
@@ -4769,6 +4826,7 @@
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
     </row>
+    <row r="48"/>
     <row r="49">
       <c r="A49" s="29" t="s">
         <v>56</v>
@@ -4869,6 +4927,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="57"/>
     <row r="58">
       <c r="A58" s="30" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
@@ -4903,6 +4962,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="60"/>
     <row r="61">
       <c r="F61" s="7" t="s">
         <v>49</v>
@@ -4953,7 +5013,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="45" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -4967,7 +5027,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="45" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -4981,7 +5041,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="45" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -4995,7 +5055,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="45" t="str">
-        <f>data!B5</f>
+        <f>data!$B$5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -5009,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="45" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -5023,7 +5083,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="45" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -5037,7 +5097,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="45" t="str">
-        <f>data!B8</f>
+        <f>data!$B$8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -5051,7 +5111,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="45" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -5065,7 +5125,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="45" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -5079,7 +5139,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="45" t="str">
-        <f>data!B11</f>
+        <f>data!$B$11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">

--- a/pools-example-small.xlsx
+++ b/pools-example-small.xlsx
@@ -355,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -419,39 +419,24 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -463,8 +448,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -473,9 +456,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -484,11 +464,23 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -503,7 +495,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -583,70 +574,70 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>

--- a/pools-example-small.xlsx
+++ b/pools-example-small.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -138,24 +138,6 @@
   </si>
   <si>
     <t>Steven Hernandez</t>
-  </si>
-  <si>
-    <t>Pool A.1</t>
-  </si>
-  <si>
-    <t>Pool C.1</t>
-  </si>
-  <si>
-    <t>Pool B.2</t>
-  </si>
-  <si>
-    <t>Pool B.1</t>
-  </si>
-  <si>
-    <t>Pool A.2</t>
-  </si>
-  <si>
-    <t>Pool C.2</t>
   </si>
   <si>
     <t>Red</t>
@@ -304,13 +286,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -419,6 +401,39 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <left style="medium">
@@ -432,11 +447,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -465,34 +475,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -547,97 +529,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2084,136 +2066,136 @@
   <sheetData>
     <row r="1"/>
     <row r="2">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="40" t="str">
         <f>data!$A$5</f>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="41" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>32</v>
+      <c r="E3" s="39" t="str">
+        <f>CONCATENATE("Pool A.1",'Pool Matches'!G81)</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="42" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="str">
+      <c r="A5" s="42" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="str">
+      <c r="A6" s="43" t="str">
         <f>data!$B$5</f>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="20"/>
+      <c r="C6" s="39" t="str">
+        <f>CONCATENATE("Pool C.1",'Pool Matches'!G125)</f>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7">
-      <c r="A7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21">
+      <c r="A7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="str">
+      <c r="A8" s="40" t="str">
         <f>data!$A$8</f>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="C8" s="39" t="str">
+        <f>CONCATENATE("Pool B.2",'Pool Matches'!O43)</f>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="str">
+      <c r="A9" s="41" t="str">
         <f>data!$B$6</f>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="str">
+      <c r="A10" s="42" t="str">
         <f>data!$B$7</f>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="str">
+      <c r="A11" s="43" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="20"/>
+      <c r="E11" s="39" t="str">
+        <f>CONCATENATE("Pool B.1",'Pool Matches'!O42)</f>
+      </c>
+      <c r="I11" s="36"/>
     </row>
     <row r="12">
-      <c r="A12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="str">
+      <c r="A13" s="40" t="str">
         <f>data!$A$11</f>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="37">
         <v>4</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="str">
+      <c r="A14" s="41" t="str">
         <f>data!$B$9</f>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="20"/>
+      <c r="C14" s="39" t="str">
+        <f>CONCATENATE("Pool A.2",'Pool Matches'!G82)</f>
+      </c>
+      <c r="G14" s="36"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="str">
+      <c r="A15" s="42" t="str">
         <f>data!$B$10</f>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21">
+      <c r="D15" s="38"/>
+      <c r="E15" s="37">
         <v>2</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="str">
+      <c r="A16" s="43" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20"/>
+      <c r="C16" s="39" t="str">
+        <f>CONCATENATE("Pool C.2",'Pool Matches'!G126)</f>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17">
-      <c r="A17" s="22"/>
+      <c r="A17" s="38"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -2580,1595 +2562,1595 @@
     <row r="2"/>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="29" t="str">
+      <c r="A4" s="20" t="str">
         <f>data!$A$5</f>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="I4" s="29" t="str">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="20" t="str">
         <f>data!$A$8</f>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="38" t="s">
-        <v>40</v>
+      <c r="A5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="str">
+      <c r="A6" s="21" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="str">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="21" t="str">
         <f>data!$B$6</f>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30" t="str">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21" t="str">
         <f>data!$B$7</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="21">
         <v>1</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="21">
         <v>2</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
         <v>2</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="21">
         <v>2</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21">
         <v>3</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="21">
         <v>3</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
         <v>4</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="21">
         <v>4</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
         <v>5</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="21">
         <v>5</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="12"/>
     <row r="13">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="21" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="30" t="str">
+      <c r="B13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="21" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="21" t="str">
         <f>data!$B$6</f>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="30" t="str">
+      <c r="J13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="21" t="str">
         <f>data!$B$7</f>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30" t="s">
-        <v>43</v>
+      <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15"/>
     <row r="16"/>
     <row r="17"/>
     <row r="18">
-      <c r="A18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="39" t="s">
-        <v>40</v>
+      <c r="A18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30" t="str">
+      <c r="A19" s="21" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="str">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="21" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30" t="str">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21" t="str">
         <f>data!$B$7</f>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30">
+      <c r="A20" s="21">
         <v>1</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
         <v>1</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="21">
         <v>1</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30">
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30">
+      <c r="A21" s="21">
         <v>2</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21">
         <v>2</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="21">
         <v>2</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30">
+      <c r="A22" s="21">
         <v>3</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21">
         <v>3</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="21">
         <v>3</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30">
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30">
+      <c r="A23" s="21">
         <v>4</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21">
         <v>4</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="21">
         <v>4</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30">
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30">
+      <c r="A24" s="21">
         <v>5</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21">
         <v>5</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="21">
         <v>5</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="25"/>
     <row r="26">
-      <c r="A26" s="30" t="str">
+      <c r="A26" s="21" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="30" t="str">
+      <c r="B26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="21" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="21" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="J26" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" s="30" t="str">
+      <c r="J26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="21" t="str">
         <f>data!$B$7</f>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30" t="s">
-        <v>43</v>
+      <c r="A27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28"/>
     <row r="29"/>
     <row r="30"/>
     <row r="31">
-      <c r="A31" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="40" t="s">
-        <v>40</v>
+      <c r="A31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30" t="str">
+      <c r="A32" s="21" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30" t="str">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="str">
         <f>data!$B$5</f>
       </c>
-      <c r="I32" s="30" t="str">
+      <c r="I32" s="21" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30" t="str">
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21" t="str">
         <f>data!$B$6</f>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="30">
+      <c r="A33" s="21">
         <v>1</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21">
         <v>1</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="21">
         <v>1</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="30">
+      <c r="A34" s="21">
         <v>2</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21">
         <v>2</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="21">
         <v>2</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30">
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="30">
+      <c r="A35" s="21">
         <v>3</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21">
         <v>3</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="21">
         <v>3</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30">
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="30">
+      <c r="A36" s="21">
         <v>4</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21">
         <v>4</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="21">
         <v>4</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30">
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="30">
+      <c r="A37" s="21">
         <v>5</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21">
         <v>5</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="21">
         <v>5</v>
       </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30">
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="38"/>
     <row r="39">
-      <c r="A39" s="30" t="str">
+      <c r="A39" s="21" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="30" t="str">
+      <c r="B39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="21" t="str">
         <f>data!$B$5</f>
       </c>
-      <c r="I39" s="30" t="str">
+      <c r="I39" s="21" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="J39" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" s="30" t="str">
+      <c r="J39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="21" t="str">
         <f>data!$B$6</f>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30" t="s">
-        <v>43</v>
+      <c r="A40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41"/>
     <row r="42">
       <c r="N42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="O42" s="29"/>
     </row>
     <row r="43">
       <c r="N43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="O43" s="29"/>
     </row>
     <row r="44">
-      <c r="A44" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="35" t="s">
+      <c r="A44" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44" s="23"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45">
-      <c r="A45" s="30" t="str">
+      <c r="A45" s="21" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30" t="str">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21" t="str">
         <f>data!$B$5</f>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="30">
+      <c r="A46" s="21">
         <v>1</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="30">
+      <c r="A47" s="21">
         <v>2</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="30">
+      <c r="A48" s="21">
         <v>3</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="30">
+      <c r="A49" s="21">
         <v>4</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="30">
+      <c r="A50" s="21">
         <v>5</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="51"/>
     <row r="52">
-      <c r="A52" s="30" t="str">
+      <c r="A52" s="21" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="30" t="str">
+      <c r="B52" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="21" t="str">
         <f>data!$B$5</f>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30" t="s">
-        <v>43</v>
+      <c r="A53" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54"/>
     <row r="55"/>
     <row r="56"/>
     <row r="57">
-      <c r="A57" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="36" t="s">
-        <v>40</v>
+      <c r="A57" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="30" t="str">
+      <c r="A58" s="21" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30" t="str">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21" t="str">
         <f>data!$B$4</f>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="30">
+      <c r="A59" s="21">
         <v>1</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="30">
+      <c r="A60" s="21">
         <v>2</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="30">
+      <c r="A61" s="21">
         <v>3</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="30">
+      <c r="A62" s="21">
         <v>4</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="30">
+      <c r="A63" s="21">
         <v>5</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="64"/>
     <row r="65">
-      <c r="A65" s="30" t="str">
+      <c r="A65" s="21" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B65" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="30" t="str">
+      <c r="B65" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="21" t="str">
         <f>data!$B$4</f>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30" t="s">
-        <v>43</v>
+      <c r="A66" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67"/>
     <row r="68"/>
     <row r="69"/>
     <row r="70">
-      <c r="A70" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="37" t="s">
-        <v>40</v>
+      <c r="A70" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="30" t="str">
+      <c r="A71" s="21" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30" t="str">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21" t="str">
         <f>data!$B$5</f>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="30">
+      <c r="A72" s="21">
         <v>1</v>
       </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="30">
+      <c r="A73" s="21">
         <v>2</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="30">
+      <c r="A74" s="21">
         <v>3</v>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="30">
+      <c r="A75" s="21">
         <v>4</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="30">
+      <c r="A76" s="21">
         <v>5</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="77"/>
     <row r="78">
-      <c r="A78" s="30" t="str">
+      <c r="A78" s="21" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B78" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="30" t="str">
+      <c r="B78" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="21" t="str">
         <f>data!$B$5</f>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30" t="s">
-        <v>43</v>
+      <c r="A79" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="80"/>
     <row r="81">
       <c r="F81" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="G81" s="29"/>
     </row>
     <row r="82">
       <c r="F82" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G82" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="G82" s="29"/>
     </row>
     <row r="83">
       <c r="F83" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="G83" s="29"/>
     </row>
     <row r="84">
       <c r="F84" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="G84" s="29"/>
     </row>
     <row r="85"/>
     <row r="86"/>
     <row r="87">
-      <c r="A87" s="29" t="str">
+      <c r="A87" s="20" t="str">
         <f>data!$A$11</f>
       </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
     </row>
     <row r="88">
-      <c r="A88" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="41" t="s">
-        <v>40</v>
+      <c r="A88" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="33" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="30" t="str">
+      <c r="A89" s="21" t="str">
         <f>data!$B$9</f>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30" t="str">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21" t="str">
         <f>data!$B$10</f>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="30">
+      <c r="A90" s="21">
         <v>1</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="30">
+      <c r="A91" s="21">
         <v>2</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="30">
+      <c r="A92" s="21">
         <v>3</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="30">
+      <c r="A93" s="21">
         <v>4</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="30">
+      <c r="A94" s="21">
         <v>5</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="95"/>
     <row r="96">
-      <c r="A96" s="30" t="str">
+      <c r="A96" s="21" t="str">
         <f>data!$B$9</f>
       </c>
-      <c r="B96" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G96" s="30" t="str">
+      <c r="B96" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="21" t="str">
         <f>data!$B$10</f>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30" t="s">
-        <v>43</v>
+      <c r="A97" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="98"/>
     <row r="99"/>
     <row r="100"/>
     <row r="101">
-      <c r="A101" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="42" t="s">
-        <v>40</v>
+      <c r="A101" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="30" t="str">
+      <c r="A102" s="21" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30" t="str">
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21" t="str">
         <f>data!$B$10</f>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="30">
+      <c r="A103" s="21">
         <v>1</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="30">
+      <c r="A104" s="21">
         <v>2</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30">
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="30">
+      <c r="A105" s="21">
         <v>3</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30">
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="30">
+      <c r="A106" s="21">
         <v>4</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30">
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="30">
+      <c r="A107" s="21">
         <v>5</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30">
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="108"/>
     <row r="109">
-      <c r="A109" s="30" t="str">
+      <c r="A109" s="21" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="B109" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G109" s="30" t="str">
+      <c r="B109" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="21" t="str">
         <f>data!$B$10</f>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30" t="s">
-        <v>43</v>
+      <c r="A110" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="111"/>
     <row r="112"/>
     <row r="113"/>
     <row r="114">
-      <c r="A114" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="43" t="s">
-        <v>40</v>
+      <c r="A114" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="30" t="str">
+      <c r="A115" s="21" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30" t="str">
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21" t="str">
         <f>data!$B$9</f>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="30">
+      <c r="A116" s="21">
         <v>1</v>
       </c>
-      <c r="B116" s="30"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30">
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="30">
+      <c r="A117" s="21">
         <v>2</v>
       </c>
-      <c r="B117" s="30"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30">
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="30">
+      <c r="A118" s="21">
         <v>3</v>
       </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30">
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="30">
+      <c r="A119" s="21">
         <v>4</v>
       </c>
-      <c r="B119" s="30"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30">
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="30">
+      <c r="A120" s="21">
         <v>5</v>
       </c>
-      <c r="B120" s="30"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30">
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="121"/>
     <row r="122">
-      <c r="A122" s="30" t="str">
+      <c r="A122" s="21" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="B122" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F122" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G122" s="30" t="str">
+      <c r="B122" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" s="21" t="str">
         <f>data!$B$9</f>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" s="30"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30" t="s">
-        <v>43</v>
+      <c r="A123" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="124"/>
     <row r="125">
       <c r="F125" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G125" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="G125" s="29"/>
     </row>
     <row r="126">
       <c r="F126" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G126" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="G126" s="29"/>
     </row>
     <row r="127">
       <c r="F127" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G127" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="G127" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4205,294 +4187,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="true">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="I3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="A3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>39</v>
+      <c r="A4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="O4" s="47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="str">
+      <c r="A5" s="21" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="str">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="21" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30" t="str">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21" t="str">
         <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="21">
         <v>1</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30">
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="21">
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21">
         <v>2</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="21">
         <v>2</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21">
         <v>3</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="21">
         <v>3</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="21">
         <v>4</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21">
         <v>4</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="21">
         <v>4</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
         <v>5</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="21">
         <v>5</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="11"/>
     <row r="12">
-      <c r="A12" s="30" t="str">
+      <c r="A12" s="21" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="30" t="str">
+      <c r="B12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="21" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="21" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="30" t="str">
+      <c r="J12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="21" t="str">
         <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30" t="s">
-        <v>43</v>
+      <c r="A13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="N15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="O15" s="29"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="G16" s="29"/>
       <c r="N16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O16" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="O16" s="29"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -4502,294 +4484,294 @@
     <row r="22"/>
     <row r="23"/>
     <row r="24">
-      <c r="A24" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="A24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25"/>
     <row r="26">
-      <c r="A26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="I26" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="A26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27">
-      <c r="A27" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>39</v>
+      <c r="A27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="O27" s="49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="str">
+      <c r="A28" s="21" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G81)</f>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30" t="str">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="21" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30" t="str">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="30">
+      <c r="A29" s="21">
         <v>1</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21">
         <v>1</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="21">
         <v>1</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="30">
+      <c r="A30" s="21">
         <v>2</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21">
         <v>2</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="21">
         <v>2</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30">
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="30">
+      <c r="A31" s="21">
         <v>3</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21">
         <v>3</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="21">
         <v>3</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30">
+      <c r="A32" s="21">
         <v>4</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21">
         <v>4</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="21">
         <v>4</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30">
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="30">
+      <c r="A33" s="21">
         <v>5</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21">
         <v>5</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="21">
         <v>5</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="34"/>
     <row r="35">
-      <c r="A35" s="30" t="str">
+      <c r="A35" s="21" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G81)</f>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="30" t="str">
+      <c r="B35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="21" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G15)</f>
       </c>
-      <c r="I35" s="30" t="str">
+      <c r="I35" s="21" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
-      <c r="J35" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" s="30" t="str">
+      <c r="J35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="21" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30" t="s">
-        <v>43</v>
+      <c r="A36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37"/>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="G38" s="29"/>
       <c r="N38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O38" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="O38" s="29"/>
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="G39" s="29"/>
       <c r="N39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O39" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="O39" s="29"/>
     </row>
     <row r="40"/>
     <row r="41"/>
@@ -4799,172 +4781,172 @@
     <row r="45"/>
     <row r="46"/>
     <row r="47">
-      <c r="A47" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
+      <c r="A47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
     </row>
     <row r="48"/>
     <row r="49">
-      <c r="A49" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
+      <c r="A49" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50">
-      <c r="A50" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>39</v>
+      <c r="A50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="30" t="str">
+      <c r="A51" s="21" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30" t="str">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O38)</f>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="30">
+      <c r="A52" s="21">
         <v>1</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="30">
+      <c r="A53" s="21">
         <v>2</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="30">
+      <c r="A54" s="21">
         <v>3</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="30">
+      <c r="A55" s="21">
         <v>4</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="30">
+      <c r="A56" s="21">
         <v>5</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="57"/>
     <row r="58">
-      <c r="A58" s="30" t="str">
+      <c r="A58" s="21" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G58" s="30" t="str">
+      <c r="B58" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="21" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O38)</f>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30" t="s">
-        <v>43</v>
+      <c r="A59" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="60"/>
     <row r="61">
       <c r="F61" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="G61" s="29"/>
     </row>
     <row r="62">
       <c r="F62" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="G62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/pools-example-small.xlsx
+++ b/pools-example-small.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Elimination Matches" sheetId="7" r:id="rId5"/>
     <sheet name="Names to Print" sheetId="8" r:id="rId6"/>
     <sheet name="Tree 1" sheetId="10" r:id="rId13"/>
+    <sheet name="Tags" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -168,6 +169,36 @@
   </si>
   <si>
     <t xml:space="preserve">4. </t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
   <si>
     <t>Match 1</t>
@@ -204,118 +235,119 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <u/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <u/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <i val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="72"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="72"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="110"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+    </font>
+    <font>
       <family val="2"/>
+      <b val="1"/>
+      <color/>
+      <sz val="150"/>
     </font>
   </fonts>
   <fills count="4">
@@ -482,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -605,6 +637,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -2072,22 +2107,22 @@
     </row>
     <row r="3">
       <c r="A3" s="41" t="str">
-        <f>data!$B$2</f>
+        <f>"1. " &amp; data!$B$2</f>
       </c>
       <c r="E3" s="39" t="str">
-        <f>CONCATENATE("Pool A.1",'Pool Matches'!G81)</f>
+        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G81)</f>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="42" t="str">
-        <f>data!$B$3</f>
+        <f>"2. " &amp; data!$B$3</f>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5">
       <c r="A5" s="42" t="str">
-        <f>data!$B$4</f>
+        <f>"3. " &amp; data!$B$4</f>
       </c>
       <c r="G5" s="37">
         <v>3</v>
@@ -2095,10 +2130,10 @@
     </row>
     <row r="6">
       <c r="A6" s="43" t="str">
-        <f>data!$B$5</f>
+        <f>"4. " &amp; data!$B$5</f>
       </c>
       <c r="C6" s="39" t="str">
-        <f>CONCATENATE("Pool C.1",'Pool Matches'!G125)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G125)</f>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="38"/>
@@ -2119,7 +2154,7 @@
         <f>data!$A$8</f>
       </c>
       <c r="C8" s="39" t="str">
-        <f>CONCATENATE("Pool B.2",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O43)</f>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="36"/>
@@ -2127,7 +2162,7 @@
     </row>
     <row r="9">
       <c r="A9" s="41" t="str">
-        <f>data!$B$6</f>
+        <f>"1. " &amp; data!$B$6</f>
       </c>
       <c r="I9" s="37">
         <v>5</v>
@@ -2135,16 +2170,16 @@
     </row>
     <row r="10">
       <c r="A10" s="42" t="str">
-        <f>data!$B$7</f>
+        <f>"2. " &amp; data!$B$7</f>
       </c>
       <c r="I10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="43" t="str">
-        <f>data!$B$8</f>
+        <f>"3. " &amp; data!$B$8</f>
       </c>
       <c r="E11" s="39" t="str">
-        <f>CONCATENATE("Pool B.1",'Pool Matches'!O42)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O42)</f>
       </c>
       <c r="I11" s="36"/>
     </row>
@@ -2166,16 +2201,16 @@
     </row>
     <row r="14">
       <c r="A14" s="41" t="str">
-        <f>data!$B$9</f>
+        <f>"1. " &amp; data!$B$9</f>
       </c>
       <c r="C14" s="39" t="str">
-        <f>CONCATENATE("Pool A.2",'Pool Matches'!G82)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G82)</f>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="42" t="str">
-        <f>data!$B$10</f>
+        <f>"2. " &amp; data!$B$10</f>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="37">
@@ -2186,10 +2221,10 @@
     </row>
     <row r="16">
       <c r="A16" s="43" t="str">
-        <f>data!$B$11</f>
+        <f>"3. " &amp; data!$B$11</f>
       </c>
       <c r="C16" s="39" t="str">
-        <f>CONCATENATE("Pool C.2",'Pool Matches'!G126)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G126)</f>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="36"/>
@@ -2200,6 +2235,82 @@
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1" ht="400" customHeight="true">
+      <c r="A1" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" ht="400" customHeight="true">
+      <c r="A2" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="400" customHeight="true">
+      <c r="A3" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="400" customHeight="true">
+      <c r="A4" s="46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="400" customHeight="true">
+      <c r="A5" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" ht="400" customHeight="true">
+      <c r="A6" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="400" customHeight="true">
+      <c r="A7" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" ht="400" customHeight="true">
+      <c r="A8" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" ht="400" customHeight="true">
+      <c r="A9" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="400" customHeight="true">
+      <c r="A10" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="11"/>
+  <rowBreaks count="9" manualBreakCount="9">
+    <brk id="1" max="16383" man="true"/>
+    <brk id="2" max="16383" man="true"/>
+    <brk id="3" max="16383" man="true"/>
+    <brk id="4" max="16383" man="true"/>
+    <brk id="5" max="16383" man="true"/>
+    <brk id="6" max="16383" man="true"/>
+    <brk id="7" max="16383" man="true"/>
+    <brk id="8" max="16383" man="true"/>
+    <brk id="9" max="16383" man="true"/>
+  </rowBreaks>
+  <colBreaks/>
 </worksheet>
 </file>
 
@@ -2207,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176316AF-4790-BF4E-A6AB-8C7837CD465B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2485,43 +2596,43 @@
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B6" s="5" t="str">
-        <f>data!$B$2</f>
+        <f>"1. " &amp; data!$B$2</f>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="str">
-        <f>data!$B$6</f>
+        <f>"1. " &amp; data!$B$6</f>
       </c>
       <c r="F6" s="5" t="str">
-        <f>data!$B$9</f>
+        <f>"1. " &amp; data!$B$9</f>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B7" s="5" t="str">
-        <f>data!$B$3</f>
+        <f>"2. " &amp; data!$B$3</f>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="str">
-        <f>data!$B$7</f>
+        <f>"2. " &amp; data!$B$7</f>
       </c>
       <c r="F7" s="5" t="str">
-        <f>data!$B$10</f>
+        <f>"2. " &amp; data!$B$10</f>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B8" s="5" t="str">
-        <f>data!$B$4</f>
+        <f>"3. " &amp; data!$B$4</f>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="str">
-        <f>data!$B$8</f>
+        <f>"3. " &amp; data!$B$8</f>
       </c>
       <c r="F8" s="5" t="str">
-        <f>data!$B$11</f>
+        <f>"3. " &amp; data!$B$11</f>
       </c>
     </row>
     <row r="9" ht="17" customHeight="true">
       <c r="B9" s="5" t="str">
-        <f>data!$B$5</f>
+        <f>"4. " &amp; data!$B$5</f>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2641,7 @@
   </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.3937007874015748" bottom="0.984251968503937" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -4208,7 +4319,7 @@
     <row r="2"/>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -4217,7 +4328,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -4233,7 +4344,7 @@
       <c r="D4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="47" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -4242,7 +4353,7 @@
       <c r="L4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4458,21 +4569,21 @@
     <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G15" s="29"/>
       <c r="N15" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O15" s="29"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G16" s="29"/>
       <c r="N16" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O16" s="29"/>
     </row>
@@ -4485,7 +4596,7 @@
     <row r="23"/>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4505,7 +4616,7 @@
     <row r="25"/>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4514,7 +4625,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
@@ -4530,7 +4641,7 @@
       <c r="D27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="49" t="s">
         <v>34</v>
       </c>
       <c r="I27" s="22" t="s">
@@ -4539,7 +4650,7 @@
       <c r="L27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="49" t="s">
+      <c r="O27" s="50" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4755,21 +4866,21 @@
     <row r="37"/>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G38" s="29"/>
       <c r="N38" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="O38" s="29"/>
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G39" s="29"/>
       <c r="N39" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="O39" s="29"/>
     </row>
@@ -4782,7 +4893,7 @@
     <row r="46"/>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4802,7 +4913,7 @@
     <row r="48"/>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -4818,7 +4929,7 @@
       <c r="D50" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="51" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4938,13 +5049,13 @@
     <row r="60"/>
     <row r="61">
       <c r="F61" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G61" s="29"/>
     </row>
     <row r="62">
       <c r="F62" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G62" s="29"/>
     </row>
@@ -5137,5 +5248,11 @@
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" horizontalDpi="0" orientation="landscape" paperSize="8" verticalDpi="0"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="6" max="16383" man="true"/>
+    <brk id="12" max="16383" man="true"/>
+    <brk id="18" max="16383" man="true"/>
+  </rowBreaks>
+  <colBreaks/>
 </worksheet>
 </file>